--- a/Trade.xlsx
+++ b/Trade.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ymeersch\Dropbox\Econometrics Assistant\Basic Econometrics\Cases\case 2020-2021\For students\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1221e6d9655731af/Documenten/School/Econometrie/Econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_709DF5978BF2BDF71BFF2A80F2EB8D2A8F3DC73F" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BFCF6819-5F40-4FE2-9922-DFC0F7762386}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="38280" yWindow="5730" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_case_2021" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="165">
   <si>
     <t>Country code</t>
   </si>
@@ -493,12 +494,33 @@
   </si>
   <si>
     <t>GDP per worker (in US dollars)</t>
+  </si>
+  <si>
+    <t>Continent</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Oceania</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1299,11 +1321,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,9 +1338,10 @@
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1343,8 +1366,11 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1369,8 +1395,11 @@
       <c r="H2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1395,8 +1424,11 @@
       <c r="H3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1421,8 +1453,11 @@
       <c r="H4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1447,8 +1482,11 @@
       <c r="H5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1473,8 +1511,11 @@
       <c r="H6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1499,8 +1540,11 @@
       <c r="H7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1525,8 +1569,11 @@
       <c r="H8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1551,8 +1598,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1577,8 +1627,11 @@
       <c r="H10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1603,8 +1656,11 @@
       <c r="H11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1629,8 +1685,11 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1655,8 +1714,11 @@
       <c r="H13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1681,8 +1743,11 @@
       <c r="H14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1707,8 +1772,11 @@
       <c r="H15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1733,8 +1801,11 @@
       <c r="H16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1759,8 +1830,11 @@
       <c r="H17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1785,8 +1859,11 @@
       <c r="H18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1811,8 +1888,11 @@
       <c r="H19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1837,8 +1917,11 @@
       <c r="H20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1863,8 +1946,11 @@
       <c r="H21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1889,8 +1975,11 @@
       <c r="H22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1915,8 +2004,11 @@
       <c r="H23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1941,8 +2033,11 @@
       <c r="H24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1967,8 +2062,11 @@
       <c r="H25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1993,8 +2091,11 @@
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2019,8 +2120,11 @@
       <c r="H27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2045,8 +2149,11 @@
       <c r="H28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2071,8 +2178,11 @@
       <c r="H29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2097,8 +2207,11 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2123,8 +2236,11 @@
       <c r="H31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2149,8 +2265,11 @@
       <c r="H32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2175,8 +2294,11 @@
       <c r="H33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2201,8 +2323,11 @@
       <c r="H34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2227,8 +2352,11 @@
       <c r="H35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2253,8 +2381,11 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2279,8 +2410,11 @@
       <c r="H37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2305,8 +2439,11 @@
       <c r="H38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2331,8 +2468,11 @@
       <c r="H39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2357,8 +2497,11 @@
       <c r="H40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2383,8 +2526,11 @@
       <c r="H41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2409,8 +2555,11 @@
       <c r="H42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2435,8 +2584,11 @@
       <c r="H43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2461,8 +2613,11 @@
       <c r="H44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2487,8 +2642,11 @@
       <c r="H45">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2513,8 +2671,11 @@
       <c r="H46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2539,8 +2700,11 @@
       <c r="H47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2565,8 +2729,11 @@
       <c r="H48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2591,8 +2758,11 @@
       <c r="H49">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2617,8 +2787,11 @@
       <c r="H50">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2643,8 +2816,11 @@
       <c r="H51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2669,8 +2845,11 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2695,8 +2874,11 @@
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2721,8 +2903,11 @@
       <c r="H54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2747,8 +2932,11 @@
       <c r="H55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2773,8 +2961,11 @@
       <c r="H56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2799,8 +2990,11 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2825,8 +3019,11 @@
       <c r="H58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2851,8 +3048,11 @@
       <c r="H59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2877,8 +3077,11 @@
       <c r="H60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2903,8 +3106,11 @@
       <c r="H61">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2929,8 +3135,11 @@
       <c r="H62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2955,8 +3164,11 @@
       <c r="H63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2981,8 +3193,11 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3007,8 +3222,11 @@
       <c r="H65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3033,8 +3251,11 @@
       <c r="H66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3059,8 +3280,11 @@
       <c r="H67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3085,8 +3309,11 @@
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3111,8 +3338,11 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3137,8 +3367,11 @@
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3163,8 +3396,11 @@
       <c r="H71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3189,8 +3425,11 @@
       <c r="H72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3215,8 +3454,11 @@
       <c r="H73">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3241,8 +3483,11 @@
       <c r="H74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3267,8 +3512,11 @@
       <c r="H75">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3293,8 +3541,11 @@
       <c r="H76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3319,8 +3570,11 @@
       <c r="H77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3345,8 +3599,11 @@
       <c r="H78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3371,8 +3628,11 @@
       <c r="H79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3397,8 +3657,11 @@
       <c r="H80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3423,8 +3686,11 @@
       <c r="H81">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3449,8 +3715,11 @@
       <c r="H82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3475,8 +3744,11 @@
       <c r="H83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3501,8 +3773,11 @@
       <c r="H84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3527,8 +3802,11 @@
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3553,8 +3831,11 @@
       <c r="H86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3579,8 +3860,11 @@
       <c r="H87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3605,8 +3889,11 @@
       <c r="H88">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3631,8 +3918,11 @@
       <c r="H89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3657,8 +3947,11 @@
       <c r="H90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3683,8 +3976,11 @@
       <c r="H91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3709,8 +4005,11 @@
       <c r="H92">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3735,8 +4034,11 @@
       <c r="H93">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3761,8 +4063,11 @@
       <c r="H94">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3787,8 +4092,11 @@
       <c r="H95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3813,8 +4121,11 @@
       <c r="H96">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3839,8 +4150,11 @@
       <c r="H97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3865,8 +4179,11 @@
       <c r="H98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3891,8 +4208,11 @@
       <c r="H99">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3917,8 +4237,11 @@
       <c r="H100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3943,8 +4266,11 @@
       <c r="H101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3969,8 +4295,11 @@
       <c r="H102">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3995,8 +4324,11 @@
       <c r="H103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4021,8 +4353,11 @@
       <c r="H104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4047,8 +4382,11 @@
       <c r="H105">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4073,8 +4411,11 @@
       <c r="H106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4099,8 +4440,11 @@
       <c r="H107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4125,8 +4469,11 @@
       <c r="H108">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4151,8 +4498,11 @@
       <c r="H109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4177,8 +4527,11 @@
       <c r="H110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4203,8 +4556,11 @@
       <c r="H111">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4229,8 +4585,11 @@
       <c r="H112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4255,8 +4614,11 @@
       <c r="H113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4281,8 +4643,11 @@
       <c r="H114">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4307,8 +4672,11 @@
       <c r="H115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4333,8 +4701,11 @@
       <c r="H116">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4359,8 +4730,11 @@
       <c r="H117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4385,8 +4759,11 @@
       <c r="H118">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4411,8 +4788,11 @@
       <c r="H119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4437,8 +4817,11 @@
       <c r="H120">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4463,8 +4846,11 @@
       <c r="H121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4489,8 +4875,11 @@
       <c r="H122">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4515,8 +4904,11 @@
       <c r="H123">
         <v>10</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4541,8 +4933,11 @@
       <c r="H124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4567,8 +4962,11 @@
       <c r="H125">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4593,8 +4991,11 @@
       <c r="H126">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4619,8 +5020,11 @@
       <c r="H127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4645,8 +5049,11 @@
       <c r="H128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4671,8 +5078,11 @@
       <c r="H129">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4697,8 +5107,11 @@
       <c r="H130">
         <v>3</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4723,8 +5136,11 @@
       <c r="H131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4749,8 +5165,11 @@
       <c r="H132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4775,8 +5194,11 @@
       <c r="H133">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4801,8 +5223,11 @@
       <c r="H134">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4827,8 +5252,11 @@
       <c r="H135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4853,8 +5281,11 @@
       <c r="H136">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4879,8 +5310,11 @@
       <c r="H137">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4905,8 +5339,11 @@
       <c r="H138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4931,8 +5368,11 @@
       <c r="H139">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4957,8 +5397,11 @@
       <c r="H140">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4983,8 +5426,11 @@
       <c r="H141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5009,8 +5455,11 @@
       <c r="H142">
         <v>11</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5035,8 +5484,11 @@
       <c r="H143">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5061,8 +5513,11 @@
       <c r="H144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5087,8 +5542,11 @@
       <c r="H145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5113,8 +5571,11 @@
       <c r="H146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5139,8 +5600,11 @@
       <c r="H147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5165,8 +5629,11 @@
       <c r="H148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5191,8 +5658,11 @@
       <c r="H149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5217,8 +5687,11 @@
       <c r="H150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5242,6 +5715,9 @@
       </c>
       <c r="H151">
         <v>0</v>
+      </c>
+      <c r="I151" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
